--- a/ExcelFiles/SynxCat_test_sheet10.xlsx
+++ b/ExcelFiles/SynxCat_test_sheet10.xlsx
@@ -452,7 +452,7 @@
         <v>xml</v>
       </c>
       <c r="B7" t="str">
-        <v>&lt;rtw&gt;&lt;tja&gt;&lt;/tja&gt;&lt;hallo&gt;&lt;/hallo&gt;&lt;bjeff&gt;&lt;/bjeff&gt;&lt;/rtw&gt;</v>
+        <v>&lt;rtw&gt;&lt;timestamp&gt;&lt;/timestamp&gt;&lt;sentfrom&gt;&lt;/sentfrom&gt;&lt;mottaker&gt;&lt;/mottaker&gt;&lt;tema&gt;&lt;/tema&gt;&lt;payload&gt;&lt;/payload&gt;&lt;/rtw&gt;</v>
       </c>
     </row>
     <row r="8">
@@ -460,7 +460,7 @@
         <v xml:space="preserve">masterScript </v>
       </c>
       <c r="B8" t="str">
-        <v>aGVplGjDpQ==</v>
+        <v>jeg vet det går bra til sist</v>
       </c>
     </row>
   </sheetData>
